--- a/LOCATION SHEETS/1870sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1870sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80109018-8042-3140-ACA4-65188FC7C701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3777410-A735-CC4B-AAB2-47DD79811689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10354" uniqueCount="4565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10356" uniqueCount="4566">
   <si>
     <t>LOCATIONS IN 1870s</t>
   </si>
@@ -13921,6 +13921,9 @@
   </si>
   <si>
     <t>Holme on Spalding Moor Sand Hill</t>
+  </si>
+  <si>
+    <t>LEITH NAVIGATION SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -14636,8 +14639,8 @@
   <dimension ref="A1:K3923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A2891" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2903" sqref="F2903"/>
+      <pane ySplit="6" topLeftCell="A3101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3127" sqref="D3127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -57655,7 +57658,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="2492" spans="1:8" ht="15">
+    <row r="2492" spans="1:8" ht="14">
       <c r="A2492" s="17" t="s">
         <v>2457</v>
       </c>
@@ -68768,12 +68771,16 @@
         <v>59</v>
       </c>
       <c r="C3121" s="19"/>
-      <c r="D3121" s="17" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E3121" s="30"/>
+      <c r="D3121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3121" s="30" t="s">
+        <v>4249</v>
+      </c>
       <c r="F3121" s="30"/>
-      <c r="G3121" s="30"/>
+      <c r="G3121" s="30" t="s">
+        <v>4565</v>
+      </c>
       <c r="H3121" s="30"/>
     </row>
     <row r="3122" spans="1:8" ht="13">

--- a/LOCATION SHEETS/1870sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1870sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335523F-E7FD-3D48-986E-3E0826F84B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A045300-E1A7-0342-9407-05D0CCA3BEB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="500" windowWidth="28040" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10391" uniqueCount="4567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10391" uniqueCount="4568">
   <si>
     <t>LOCATIONS IN 1870s</t>
   </si>
@@ -13908,9 +13908,6 @@
     <t>BANBURY (JARVIS)</t>
   </si>
   <si>
-    <t>EDINBURGH UNKNOWN</t>
-  </si>
-  <si>
     <t>ST ANDREWS UNKNOWN</t>
   </si>
   <si>
@@ -13927,6 +13924,12 @@
   </si>
   <si>
     <t>BOURNEMOUTH (OBS WELCH)</t>
+  </si>
+  <si>
+    <t>LINCOLN NORTON</t>
+  </si>
+  <si>
+    <t>EDINBURGH</t>
   </si>
 </sst>
 </file>
@@ -14665,8 +14668,8 @@
   <dimension ref="A1:K3923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A779" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G808" sqref="G808"/>
+      <pane ySplit="6" topLeftCell="A2369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2389" sqref="D2389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -16865,7 +16868,7 @@
       </c>
       <c r="F130" s="30"/>
       <c r="G130" s="30" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
       <c r="H130" s="30"/>
     </row>
@@ -31233,7 +31236,7 @@
       <c r="E962" s="30"/>
       <c r="F962" s="30"/>
       <c r="G962" s="30" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
       <c r="H962" s="30"/>
     </row>
@@ -31359,7 +31362,7 @@
       </c>
       <c r="F969" s="30"/>
       <c r="G969" s="30" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="H969" s="30"/>
     </row>
@@ -43926,15 +43929,17 @@
       <c r="B1699" s="18">
         <v>43</v>
       </c>
-      <c r="C1699" s="39" t="s">
-        <v>4278</v>
-      </c>
-      <c r="D1699" s="17" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E1699" s="30"/>
+      <c r="C1699" s="39"/>
+      <c r="D1699" s="10" t="s">
+        <v>4454</v>
+      </c>
+      <c r="E1699" s="30" t="s">
+        <v>4239</v>
+      </c>
       <c r="F1699" s="30"/>
-      <c r="G1699" s="30"/>
+      <c r="G1699" s="30" t="s">
+        <v>4566</v>
+      </c>
       <c r="H1699" s="30" t="s">
         <v>1737</v>
       </c>
@@ -55913,12 +55918,8 @@
       <c r="D2389" s="17" t="s">
         <v>2392</v>
       </c>
-      <c r="E2389" s="30" t="s">
-        <v>4239</v>
-      </c>
-      <c r="F2389" s="30">
-        <v>3466</v>
-      </c>
+      <c r="E2389" s="30"/>
+      <c r="F2389" s="30"/>
       <c r="G2389" s="30"/>
       <c r="H2389" s="30"/>
     </row>
@@ -60943,7 +60944,7 @@
       </c>
       <c r="F2671" s="30"/>
       <c r="G2671" s="10" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="H2671" s="30"/>
     </row>
@@ -60963,7 +60964,7 @@
       </c>
       <c r="F2672" s="30"/>
       <c r="G2672" s="30" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="H2672" s="30"/>
     </row>
@@ -60983,7 +60984,7 @@
       </c>
       <c r="F2673" s="30"/>
       <c r="G2673" s="30" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
       <c r="H2673" s="30"/>
     </row>
@@ -68713,7 +68714,7 @@
       </c>
       <c r="F3112" s="30"/>
       <c r="G3112" s="30" t="s">
-        <v>4560</v>
+        <v>4567</v>
       </c>
       <c r="H3112" s="30"/>
     </row>
@@ -72375,7 +72376,7 @@
       </c>
       <c r="F3307" s="30"/>
       <c r="G3307" s="30" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="H3307" s="30"/>
     </row>
@@ -72395,7 +72396,7 @@
       </c>
       <c r="F3308" s="30"/>
       <c r="G3308" s="30" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="H3308" s="30"/>
     </row>
